--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1728443.576657859</v>
+        <v>1673491.687373763</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013174</v>
+        <v>408938.3872013176</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11497228.11079585</v>
+        <v>11497228.11079586</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7556370.261654788</v>
+        <v>7556370.261654786</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>115.8866632486807</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>214.0920521918446</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.329915919762344</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>34.26361336195739</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>237.1773944157285</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>8.91625866685696</v>
       </c>
       <c r="S13" t="n">
-        <v>50.0001043529487</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>175.1632228601646</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>220.2533451494453</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -1697,16 +1697,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>23.17277270808247</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>153.1172972319387</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>50.00010435294872</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>8.916258666856974</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>147.8573665543285</v>
       </c>
       <c r="E17" t="n">
         <v>371.4789120616362</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>178.0662482474249</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.329915919761908</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S18" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>254.1266385331778</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>131.0804113283488</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>137.4545982671966</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.6004750338983</v>
+        <v>10.09230602767266</v>
       </c>
       <c r="I20" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -2174,13 +2174,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>127.3544661193437</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>47.72487283612583</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>131.0804113283488</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>80.39631948615272</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>14.72898856105631</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>285.1783195945</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.329915919761908</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>108.556738000014</v>
       </c>
       <c r="T24" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>16.93456886964954</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>76.53519509961433</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>131.9585290776972</v>
+        <v>118.8578214780258</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.0353723969745</v>
@@ -2617,7 +2617,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>90.75898579008596</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
-        <v>211.8662302997449</v>
+        <v>173.3282781995071</v>
       </c>
       <c r="U27" t="n">
         <v>237.1773944157285</v>
@@ -2699,10 +2699,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>7.226885210985788</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>73.35340349906454</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>176.9693758165091</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.92687261044468</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>38.44565182184095</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
         <v>237.1773944157285</v>
@@ -2939,7 +2939,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>126.0920880582899</v>
       </c>
     </row>
     <row r="31">
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>8.916258666857072</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>7.226885210985788</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>140.626945524964</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>119.7132633034007</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.329915919761908</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>177.283526739121</v>
@@ -3164,7 +3164,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>139.8851963399927</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>75.61813689207855</v>
       </c>
       <c r="X34" t="n">
-        <v>7.226885210985782</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>143.6818334083184</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0353723969745</v>
+        <v>6.00418128434894</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,16 +3356,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>56.46068531079781</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
         <v>177.283526739121</v>
@@ -3401,7 +3401,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>151.6348840586602</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6213336334641</v>
+        <v>73.35340349906456</v>
       </c>
       <c r="V37" t="n">
-        <v>8.916258666857072</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>235.530439479948</v>
       </c>
       <c r="V38" t="n">
-        <v>184.6787338458755</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>148.8450448290133</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -3599,10 +3599,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>153.1172972319387</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>131.0804113283488</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>119.920671635353</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.1639724458418</v>
@@ -3799,10 +3799,10 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>187.3828560892694</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>4.037962291012166</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>39.19605052942094</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>159.1886689264935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3942,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>50.00010435294849</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>16.93456886964942</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>355.1118684871176</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>73.87720200630363</v>
       </c>
       <c r="D44" t="n">
         <v>337.7721596422273</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -4076,7 +4076,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>22.70042032133665</v>
+        <v>183.5297545487765</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>16.93456886964944</v>
+        <v>7.226885210985788</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>978.9465481215775</v>
+        <v>880.3460394115116</v>
       </c>
       <c r="C11" t="n">
-        <v>978.9465481215775</v>
+        <v>526.6031127638562</v>
       </c>
       <c r="D11" t="n">
-        <v>978.9465481215775</v>
+        <v>526.6031127638562</v>
       </c>
       <c r="E11" t="n">
-        <v>978.9465481215775</v>
+        <v>151.3718884591732</v>
       </c>
       <c r="F11" t="n">
-        <v>978.9465481215775</v>
+        <v>151.3718884591732</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887603033</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193755</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292786</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N11" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O11" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P11" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q11" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R11" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S11" t="n">
-        <v>1413.54859321015</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T11" t="n">
-        <v>1195.201146295158</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U11" t="n">
-        <v>978.9465481215775</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="V11" t="n">
-        <v>978.9465481215775</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="W11" t="n">
-        <v>978.9465481215775</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="X11" t="n">
-        <v>978.9465481215775</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="Y11" t="n">
-        <v>978.9465481215775</v>
+        <v>880.3460394115116</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37.67820428854856</v>
+        <v>339.9966893088193</v>
       </c>
       <c r="C12" t="n">
-        <v>37.67820428854856</v>
+        <v>150.584415041783</v>
       </c>
       <c r="D12" t="n">
-        <v>37.67820428854856</v>
+        <v>150.584415041783</v>
       </c>
       <c r="E12" t="n">
-        <v>34.31465285444518</v>
+        <v>150.584415041783</v>
       </c>
       <c r="F12" t="n">
-        <v>34.31465285444518</v>
+        <v>150.584415041783</v>
       </c>
       <c r="G12" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H12" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I12" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>34.31465285444518</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K12" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L12" t="n">
-        <v>478.3196054885461</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M12" t="n">
-        <v>853.2112150416077</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N12" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O12" t="n">
-        <v>1569.578013588513</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P12" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q12" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S12" t="n">
-        <v>1448.884598007118</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775052</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U12" t="n">
-        <v>995.3051791025991</v>
+        <v>1476.159517049805</v>
       </c>
       <c r="V12" t="n">
-        <v>752.2254610062332</v>
+        <v>1233.079798953439</v>
       </c>
       <c r="W12" t="n">
-        <v>482.8268917365245</v>
+        <v>963.6812296837303</v>
       </c>
       <c r="X12" t="n">
-        <v>263.3188973532209</v>
+        <v>744.1732353004267</v>
       </c>
       <c r="Y12" t="n">
-        <v>37.67820428854856</v>
+        <v>518.5325422357544</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514575</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L13" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N13" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P13" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.9755581809702</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651457</v>
+        <v>325.8513534943079</v>
       </c>
       <c r="S13" t="n">
-        <v>34.31465285444518</v>
+        <v>325.8513534943079</v>
       </c>
       <c r="T13" t="n">
-        <v>34.31465285444518</v>
+        <v>325.8513534943079</v>
       </c>
       <c r="U13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>729.2415791407141</v>
+        <v>618.5191705313928</v>
       </c>
       <c r="C14" t="n">
-        <v>375.4986524930586</v>
+        <v>618.5191705313928</v>
       </c>
       <c r="D14" t="n">
-        <v>34.31465285444516</v>
+        <v>618.5191705313928</v>
       </c>
       <c r="E14" t="n">
-        <v>34.31465285444516</v>
+        <v>618.5191705313928</v>
       </c>
       <c r="F14" t="n">
-        <v>34.31465285444516</v>
+        <v>211.2472011980458</v>
       </c>
       <c r="G14" t="n">
-        <v>34.31465285444516</v>
+        <v>211.2472011980458</v>
       </c>
       <c r="H14" t="n">
         <v>34.31465285444516</v>
@@ -5278,16 +5278,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602993</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L14" t="n">
         <v>525.5283691389718</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157782</v>
@@ -5302,28 +5302,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S14" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T14" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="U14" t="n">
-        <v>1715.732642722258</v>
+        <v>942.6401640759908</v>
       </c>
       <c r="V14" t="n">
-        <v>1493.254516308677</v>
+        <v>618.5191705313928</v>
       </c>
       <c r="W14" t="n">
-        <v>1493.254516308677</v>
+        <v>618.5191705313928</v>
       </c>
       <c r="X14" t="n">
-        <v>1493.254516308677</v>
+        <v>618.5191705313928</v>
       </c>
       <c r="Y14" t="n">
-        <v>1107.107478512263</v>
+        <v>618.5191705313928</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1069.118384851047</v>
+        <v>392.0648140912742</v>
       </c>
       <c r="C15" t="n">
-        <v>879.7061105840106</v>
+        <v>392.0648140912742</v>
       </c>
       <c r="D15" t="n">
-        <v>718.9259943450423</v>
+        <v>231.2846978523059</v>
       </c>
       <c r="E15" t="n">
-        <v>545.3627904664568</v>
+        <v>57.72149397372038</v>
       </c>
       <c r="F15" t="n">
-        <v>384.9350741837009</v>
+        <v>57.72149397372038</v>
       </c>
       <c r="G15" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I15" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.4093011102587</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L15" t="n">
-        <v>395.2338702498411</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M15" t="n">
-        <v>770.1254798029026</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N15" t="n">
         <v>1173.359244302914</v>
@@ -5381,28 +5381,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S15" t="n">
-        <v>1627.958867440572</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T15" t="n">
-        <v>1627.958867440572</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U15" t="n">
-        <v>1627.958867440572</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V15" t="n">
-        <v>1627.958867440572</v>
+        <v>839.9992362879179</v>
       </c>
       <c r="W15" t="n">
-        <v>1627.958867440572</v>
+        <v>570.6006670182093</v>
       </c>
       <c r="X15" t="n">
-        <v>1473.294930842654</v>
+        <v>570.6006670182093</v>
       </c>
       <c r="Y15" t="n">
-        <v>1247.654237777982</v>
+        <v>570.6006670182093</v>
       </c>
     </row>
     <row r="16">
@@ -5439,37 +5439,37 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514573</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.9755581809702</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R16" t="n">
-        <v>84.81980876651457</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S16" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T16" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U16" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="V16" t="n">
         <v>34.31465285444516</v>
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1158.001846131089</v>
+        <v>966.1687217998776</v>
       </c>
       <c r="C17" t="n">
-        <v>1158.001846131089</v>
+        <v>966.1687217998776</v>
       </c>
       <c r="D17" t="n">
         <v>816.8178464924752</v>
@@ -5503,16 +5503,16 @@
         <v>441.5866221877922</v>
       </c>
       <c r="F17" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G17" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H17" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I17" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J17" t="n">
         <v>79.26440887602985</v>
@@ -5521,10 +5521,10 @@
         <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389717</v>
       </c>
       <c r="M17" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157782</v>
@@ -5533,34 +5533,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="V17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="W17" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="X17" t="n">
-        <v>1715.732642722258</v>
+        <v>1352.315759596292</v>
       </c>
       <c r="Y17" t="n">
-        <v>1535.867745502637</v>
+        <v>966.1687217998776</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37.6782042885481</v>
+        <v>544.9347596432056</v>
       </c>
       <c r="C18" t="n">
-        <v>37.6782042885481</v>
+        <v>355.5224853761693</v>
       </c>
       <c r="D18" t="n">
-        <v>37.6782042885481</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="E18" t="n">
-        <v>37.6782042885481</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F18" t="n">
-        <v>37.6782042885481</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G18" t="n">
-        <v>37.6782042885481</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H18" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I18" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J18" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K18" t="n">
-        <v>195.4144734331679</v>
+        <v>195.4144734331678</v>
       </c>
       <c r="L18" t="n">
-        <v>395.2338702498415</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M18" t="n">
-        <v>770.1254798029031</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N18" t="n">
-        <v>1173.359244302914</v>
+        <v>1173.359244302913</v>
       </c>
       <c r="O18" t="n">
-        <v>1486.492278349808</v>
+        <v>1486.492278349807</v>
       </c>
       <c r="P18" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q18" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007117</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775052</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="U18" t="n">
-        <v>995.3051791025987</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="V18" t="n">
-        <v>752.2254610062328</v>
+        <v>1205.80487991075</v>
       </c>
       <c r="W18" t="n">
-        <v>482.8268917365241</v>
+        <v>949.1113056348131</v>
       </c>
       <c r="X18" t="n">
-        <v>263.3188973532204</v>
+        <v>949.1113056348131</v>
       </c>
       <c r="Y18" t="n">
-        <v>37.6782042885481</v>
+        <v>723.4706125701407</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1715.732642722258</v>
+        <v>202.4532194928011</v>
       </c>
       <c r="C19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E19" t="n">
-        <v>1576.889614169535</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F19" t="n">
-        <v>1576.889614169535</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G19" t="n">
-        <v>1576.889614169535</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H19" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I19" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J19" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K19" t="n">
-        <v>1423.105386587382</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L19" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M19" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N19" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O19" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1374.423083302292</v>
+        <v>451.7808707005928</v>
       </c>
       <c r="C20" t="n">
-        <v>1374.423083302292</v>
+        <v>451.7808707005928</v>
       </c>
       <c r="D20" t="n">
-        <v>1374.423083302292</v>
+        <v>451.7808707005928</v>
       </c>
       <c r="E20" t="n">
-        <v>1374.423083302292</v>
+        <v>451.7808707005928</v>
       </c>
       <c r="F20" t="n">
-        <v>967.1511139689449</v>
+        <v>44.50890136724581</v>
       </c>
       <c r="G20" t="n">
-        <v>545.5364076389362</v>
+        <v>44.50890136724581</v>
       </c>
       <c r="H20" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J20" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L20" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O20" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P20" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R20" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S20" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="T20" t="n">
-        <v>1715.732642722258</v>
+        <v>1391.879729590323</v>
       </c>
       <c r="U20" t="n">
-        <v>1715.732642722258</v>
+        <v>1139.318747371157</v>
       </c>
       <c r="V20" t="n">
-        <v>1715.732642722258</v>
+        <v>815.1977538265586</v>
       </c>
       <c r="W20" t="n">
-        <v>1374.423083302292</v>
+        <v>815.1977538265586</v>
       </c>
       <c r="X20" t="n">
-        <v>1374.423083302292</v>
+        <v>451.7808707005928</v>
       </c>
       <c r="Y20" t="n">
-        <v>1374.423083302292</v>
+        <v>451.7808707005928</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1048.290226142311</v>
+        <v>637.2659426243281</v>
       </c>
       <c r="C21" t="n">
-        <v>858.8779518752744</v>
+        <v>637.2659426243281</v>
       </c>
       <c r="D21" t="n">
-        <v>698.0978356363062</v>
+        <v>637.2659426243281</v>
       </c>
       <c r="E21" t="n">
-        <v>524.5346317577206</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F21" t="n">
-        <v>364.1069154749647</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4660406069408</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K21" t="n">
-        <v>34.31465285444516</v>
+        <v>112.3287381944626</v>
       </c>
       <c r="L21" t="n">
-        <v>317.2197849098234</v>
+        <v>395.2338702498408</v>
       </c>
       <c r="M21" t="n">
-        <v>692.111394462885</v>
+        <v>770.1254798029023</v>
       </c>
       <c r="N21" t="n">
-        <v>1095.345158962896</v>
+        <v>1173.359244302913</v>
       </c>
       <c r="O21" t="n">
-        <v>1408.47819300979</v>
+        <v>1486.492278349807</v>
       </c>
       <c r="P21" t="n">
-        <v>1637.71855738224</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R21" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S21" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T21" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.952574208506</v>
       </c>
       <c r="U21" t="n">
-        <v>1715.732642722258</v>
+        <v>1174.379448536053</v>
       </c>
       <c r="V21" t="n">
-        <v>1715.732642722258</v>
+        <v>1174.379448536053</v>
       </c>
       <c r="W21" t="n">
-        <v>1446.33407345255</v>
+        <v>904.9808792663447</v>
       </c>
       <c r="X21" t="n">
-        <v>1226.826079069246</v>
+        <v>685.472884883041</v>
       </c>
       <c r="Y21" t="n">
-        <v>1226.826079069246</v>
+        <v>637.2659426243281</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="C22" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416661</v>
       </c>
       <c r="D22" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416661</v>
       </c>
       <c r="E22" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416661</v>
       </c>
       <c r="F22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J22" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K22" t="n">
-        <v>42.23041924514573</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L22" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M22" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N22" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P22" t="n">
-        <v>334.8576753800221</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q22" t="n">
-        <v>334.8576753800221</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R22" t="n">
-        <v>334.8576753800221</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S22" t="n">
-        <v>334.8576753800221</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T22" t="n">
-        <v>334.8576753800221</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U22" t="n">
-        <v>334.8576753800221</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V22" t="n">
-        <v>334.8576753800221</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W22" t="n">
-        <v>334.8576753800221</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X22" t="n">
-        <v>253.6492718586557</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1086.364174620979</v>
+        <v>711.1329503162957</v>
       </c>
       <c r="C23" t="n">
-        <v>1086.364174620979</v>
+        <v>711.1329503162957</v>
       </c>
       <c r="D23" t="n">
-        <v>745.1801749823653</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="E23" t="n">
         <v>369.9489506776823</v>
@@ -5989,52 +5989,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L23" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292781</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O23" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P23" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q23" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S23" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T23" t="n">
-        <v>1715.732642722258</v>
+        <v>1398.67082698686</v>
       </c>
       <c r="U23" t="n">
-        <v>1715.732642722258</v>
+        <v>1398.67082698686</v>
       </c>
       <c r="V23" t="n">
-        <v>1427.673734040945</v>
+        <v>1074.549833442261</v>
       </c>
       <c r="W23" t="n">
-        <v>1086.364174620979</v>
+        <v>1074.549833442261</v>
       </c>
       <c r="X23" t="n">
-        <v>1086.364174620979</v>
+        <v>711.1329503162957</v>
       </c>
       <c r="Y23" t="n">
-        <v>1086.364174620979</v>
+        <v>711.1329503162957</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34.31465285444516</v>
+        <v>718.4979635217912</v>
       </c>
       <c r="C24" t="n">
-        <v>34.31465285444516</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D24" t="n">
-        <v>34.31465285444516</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E24" t="n">
-        <v>34.31465285444516</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F24" t="n">
         <v>34.31465285444516</v>
@@ -6068,52 +6068,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K24" t="n">
-        <v>34.31465285444516</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L24" t="n">
-        <v>317.2197849098234</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M24" t="n">
-        <v>692.1113944628851</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N24" t="n">
-        <v>1095.345158962896</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O24" t="n">
-        <v>1408.47819300979</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P24" t="n">
-        <v>1637.71855738224</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q24" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S24" t="n">
-        <v>1448.884598007117</v>
+        <v>1606.079372015173</v>
       </c>
       <c r="T24" t="n">
-        <v>1234.878304775052</v>
+        <v>1392.073078783108</v>
       </c>
       <c r="U24" t="n">
-        <v>995.3051791025987</v>
+        <v>1392.073078783108</v>
       </c>
       <c r="V24" t="n">
-        <v>752.2254610062328</v>
+        <v>1392.073078783108</v>
       </c>
       <c r="W24" t="n">
-        <v>482.8268917365241</v>
+        <v>1122.674509513399</v>
       </c>
       <c r="X24" t="n">
-        <v>263.3188973532204</v>
+        <v>1122.674509513399</v>
       </c>
       <c r="Y24" t="n">
-        <v>37.6782042885481</v>
+        <v>897.0338164487264</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D25" t="n">
-        <v>1698.6270176014</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E25" t="n">
-        <v>1555.519804255718</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>1423.105386587382</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L25" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M25" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N25" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R25" t="n">
-        <v>1715.732642722258</v>
+        <v>257.5493975016237</v>
       </c>
       <c r="S25" t="n">
-        <v>1715.732642722258</v>
+        <v>257.5493975016237</v>
       </c>
       <c r="T25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>542.8373206719536</v>
+        <v>495.557058026418</v>
       </c>
       <c r="C26" t="n">
-        <v>542.8373206719536</v>
+        <v>495.557058026418</v>
       </c>
       <c r="D26" t="n">
-        <v>542.8373206719536</v>
+        <v>154.3730583878046</v>
       </c>
       <c r="E26" t="n">
-        <v>167.6060963672707</v>
+        <v>154.3730583878046</v>
       </c>
       <c r="F26" t="n">
-        <v>167.6060963672707</v>
+        <v>154.3730583878046</v>
       </c>
       <c r="G26" t="n">
         <v>34.31465285444516</v>
@@ -6244,34 +6244,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P26" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q26" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S26" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T26" t="n">
-        <v>1497.385195807267</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U26" t="n">
-        <v>1244.824213588101</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="V26" t="n">
-        <v>920.7032200435025</v>
+        <v>836.8666174463846</v>
       </c>
       <c r="W26" t="n">
-        <v>920.7032200435025</v>
+        <v>495.557058026418</v>
       </c>
       <c r="X26" t="n">
-        <v>920.7032200435025</v>
+        <v>495.557058026418</v>
       </c>
       <c r="Y26" t="n">
-        <v>920.7032200435025</v>
+        <v>495.557058026418</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>125.9903960767542</v>
+        <v>343.2182631532629</v>
       </c>
       <c r="C27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="D27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="E27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="F27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H27" t="n">
         <v>34.31465285444516</v>
@@ -6305,52 +6305,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K27" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L27" t="n">
-        <v>304.6946924676443</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M27" t="n">
-        <v>679.5863020207058</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N27" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O27" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P27" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q27" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S27" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T27" t="n">
-        <v>1501.726349490193</v>
+        <v>1273.805529118726</v>
       </c>
       <c r="U27" t="n">
-        <v>1262.15322381774</v>
+        <v>1034.232403446273</v>
       </c>
       <c r="V27" t="n">
-        <v>1019.073505721374</v>
+        <v>791.1526853499066</v>
       </c>
       <c r="W27" t="n">
-        <v>749.6749364516653</v>
+        <v>521.7541160801979</v>
       </c>
       <c r="X27" t="n">
-        <v>530.1669420683617</v>
+        <v>521.7541160801979</v>
       </c>
       <c r="Y27" t="n">
-        <v>304.5262490036893</v>
+        <v>521.7541160801979</v>
       </c>
     </row>
     <row r="28">
@@ -6387,7 +6387,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>42.23041924514571</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L28" t="n">
         <v>105.4471208306432</v>
@@ -6411,25 +6411,25 @@
         <v>334.857675380022</v>
       </c>
       <c r="S28" t="n">
-        <v>108.4089998231972</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W28" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="X28" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594595</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>863.2013285178008</v>
+        <v>588.3028224283293</v>
       </c>
       <c r="C29" t="n">
-        <v>863.2013285178008</v>
+        <v>588.3028224283293</v>
       </c>
       <c r="D29" t="n">
-        <v>863.2013285178008</v>
+        <v>588.3028224283293</v>
       </c>
       <c r="E29" t="n">
-        <v>863.2013285178008</v>
+        <v>213.0715981236463</v>
       </c>
       <c r="F29" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G29" t="n">
         <v>34.31465285444516</v>
@@ -6490,25 +6490,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S29" t="n">
-        <v>1658.230751196557</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T29" t="n">
-        <v>1439.883304281565</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U29" t="n">
-        <v>1187.322322062399</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V29" t="n">
-        <v>863.2013285178008</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W29" t="n">
-        <v>863.2013285178008</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X29" t="n">
-        <v>863.2013285178008</v>
+        <v>1352.315759596292</v>
       </c>
       <c r="Y29" t="n">
-        <v>863.2013285178008</v>
+        <v>966.1687217998781</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73.14864459367845</v>
+        <v>223.7269271214814</v>
       </c>
       <c r="C30" t="n">
-        <v>73.14864459367845</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D30" t="n">
-        <v>73.14864459367845</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E30" t="n">
-        <v>73.14864459367845</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F30" t="n">
         <v>34.31465285444516</v>
@@ -6542,52 +6542,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K30" t="n">
-        <v>54.40930111025867</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L30" t="n">
-        <v>337.3144331656368</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M30" t="n">
-        <v>712.2060427186984</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N30" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O30" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P30" t="n">
-        <v>1657.813205638054</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q30" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T30" t="n">
-        <v>1448.884598007117</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U30" t="n">
-        <v>1209.311472334664</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V30" t="n">
-        <v>966.2317542382982</v>
+        <v>839.9992362879179</v>
       </c>
       <c r="W30" t="n">
-        <v>696.8331849685895</v>
+        <v>570.6006670182093</v>
       </c>
       <c r="X30" t="n">
-        <v>477.3251905852859</v>
+        <v>351.0926726349056</v>
       </c>
       <c r="Y30" t="n">
-        <v>251.6844975206135</v>
+        <v>223.7269271214814</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>1423.105386587382</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L31" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M31" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N31" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O31" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T31" t="n">
-        <v>1706.726320836544</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U31" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V31" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W31" t="n">
-        <v>1415.189620196681</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="X31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1337.866743350709</v>
+        <v>951.719705554295</v>
       </c>
       <c r="C32" t="n">
-        <v>984.123816703054</v>
+        <v>597.9767789066397</v>
       </c>
       <c r="D32" t="n">
-        <v>984.123816703054</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E32" t="n">
-        <v>984.123816703054</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F32" t="n">
-        <v>576.851847369707</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G32" t="n">
-        <v>155.2371410396984</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H32" t="n">
         <v>34.31465285444516</v>
@@ -6700,16 +6700,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K32" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N32" t="n">
         <v>1186.279026157783</v>
@@ -6745,7 +6745,7 @@
         <v>1715.732642722258</v>
       </c>
       <c r="Y32" t="n">
-        <v>1715.732642722258</v>
+        <v>1329.585604925844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.31465285444516</v>
+        <v>223.7269271214814</v>
       </c>
       <c r="C33" t="n">
         <v>34.31465285444516</v>
@@ -6779,52 +6779,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
-        <v>54.40930111025867</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L33" t="n">
-        <v>304.6946924676443</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M33" t="n">
-        <v>679.5863020207058</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N33" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O33" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q33" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T33" t="n">
-        <v>1234.878304775052</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U33" t="n">
-        <v>995.3051791025987</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V33" t="n">
-        <v>752.2254610062328</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W33" t="n">
-        <v>482.8268917365241</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X33" t="n">
-        <v>263.3188973532204</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y33" t="n">
-        <v>37.6782042885481</v>
+        <v>223.7269271214814</v>
       </c>
     </row>
     <row r="34">
@@ -6861,7 +6861,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23041924514571</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L34" t="n">
         <v>105.4471208306432</v>
@@ -6897,7 +6897,7 @@
         <v>334.857675380022</v>
       </c>
       <c r="W34" t="n">
-        <v>41.61453690594595</v>
+        <v>258.475718923377</v>
       </c>
       <c r="X34" t="n">
         <v>34.31465285444516</v>
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>455.9293591844538</v>
+        <v>916.6244702546006</v>
       </c>
       <c r="C35" t="n">
-        <v>455.9293591844538</v>
+        <v>562.8815436069452</v>
       </c>
       <c r="D35" t="n">
-        <v>455.9293591844538</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="E35" t="n">
-        <v>455.9293591844538</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="F35" t="n">
-        <v>455.9293591844538</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H35" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I35" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K35" t="n">
         <v>253.8975067193749</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M35" t="n">
         <v>856.6460009292778</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
         <v>1460.632785841149</v>
@@ -6961,28 +6961,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S35" t="n">
-        <v>1519.054059427092</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T35" t="n">
-        <v>1373.920894368184</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U35" t="n">
-        <v>1121.359912149018</v>
+        <v>1604.162346925164</v>
       </c>
       <c r="V35" t="n">
-        <v>797.2389186044204</v>
+        <v>1280.041353380566</v>
       </c>
       <c r="W35" t="n">
-        <v>455.9293591844538</v>
+        <v>1280.041353380566</v>
       </c>
       <c r="X35" t="n">
-        <v>455.9293591844538</v>
+        <v>916.6244702546006</v>
       </c>
       <c r="Y35" t="n">
-        <v>455.9293591844538</v>
+        <v>916.6244702546006</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>276.4024208579153</v>
+        <v>280.7579223849136</v>
       </c>
       <c r="C36" t="n">
-        <v>276.4024208579153</v>
+        <v>91.34564811787729</v>
       </c>
       <c r="D36" t="n">
-        <v>276.4024208579153</v>
+        <v>91.34564811787729</v>
       </c>
       <c r="E36" t="n">
-        <v>276.4024208579153</v>
+        <v>91.34564811787729</v>
       </c>
       <c r="F36" t="n">
-        <v>115.9747045751594</v>
+        <v>91.34564811787729</v>
       </c>
       <c r="G36" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I36" t="n">
         <v>34.31465285444516</v>
@@ -7019,13 +7019,13 @@
         <v>54.40930111025867</v>
       </c>
       <c r="K36" t="n">
-        <v>112.3287381944635</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L36" t="n">
-        <v>395.2338702498417</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M36" t="n">
-        <v>770.1254798029032</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N36" t="n">
         <v>1173.359244302914</v>
@@ -7040,28 +7040,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S36" t="n">
-        <v>1536.658373288803</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T36" t="n">
-        <v>1322.652080056737</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U36" t="n">
-        <v>1169.485530502535</v>
+        <v>995.3051791025982</v>
       </c>
       <c r="V36" t="n">
-        <v>1169.485530502535</v>
+        <v>995.3051791025982</v>
       </c>
       <c r="W36" t="n">
-        <v>900.0869612328263</v>
+        <v>725.9066098328896</v>
       </c>
       <c r="X36" t="n">
-        <v>680.5789668495227</v>
+        <v>506.3986154495859</v>
       </c>
       <c r="Y36" t="n">
-        <v>454.9382737848504</v>
+        <v>280.7579223849136</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587382</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722258</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="U37" t="n">
-        <v>1424.195942082395</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>369.9489506776823</v>
+        <v>1136.513548474061</v>
       </c>
       <c r="C38" t="n">
-        <v>369.9489506776823</v>
+        <v>782.7706218264057</v>
       </c>
       <c r="D38" t="n">
-        <v>369.9489506776823</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="E38" t="n">
-        <v>369.9489506776823</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F38" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G38" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H38" t="n">
         <v>34.31465285444516</v>
@@ -7174,16 +7174,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K38" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N38" t="n">
         <v>1186.279026157783</v>
@@ -7192,34 +7192,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q38" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S38" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T38" t="n">
-        <v>1195.201146295157</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U38" t="n">
-        <v>942.6401640759908</v>
+        <v>1477.823107894028</v>
       </c>
       <c r="V38" t="n">
-        <v>756.0959884740963</v>
+        <v>1477.823107894028</v>
       </c>
       <c r="W38" t="n">
-        <v>756.0959884740963</v>
+        <v>1136.513548474061</v>
       </c>
       <c r="X38" t="n">
-        <v>756.0959884740963</v>
+        <v>1136.513548474061</v>
       </c>
       <c r="Y38" t="n">
-        <v>369.9489506776823</v>
+        <v>1136.513548474061</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1069.118384851047</v>
+        <v>828.9032529618314</v>
       </c>
       <c r="C39" t="n">
-        <v>879.7061105840106</v>
+        <v>678.5547228315149</v>
       </c>
       <c r="D39" t="n">
-        <v>718.9259943450423</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="E39" t="n">
-        <v>545.3627904664568</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F39" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G39" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K39" t="n">
-        <v>112.3287381944631</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L39" t="n">
-        <v>395.2338702498412</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M39" t="n">
-        <v>770.1254798029028</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N39" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O39" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P39" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T39" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U39" t="n">
-        <v>1473.294930842654</v>
+        <v>1476.159517049805</v>
       </c>
       <c r="V39" t="n">
-        <v>1473.294930842654</v>
+        <v>1233.079798953439</v>
       </c>
       <c r="W39" t="n">
-        <v>1473.294930842654</v>
+        <v>1233.079798953439</v>
       </c>
       <c r="X39" t="n">
-        <v>1473.294930842654</v>
+        <v>1233.079798953439</v>
       </c>
       <c r="Y39" t="n">
-        <v>1247.654237777982</v>
+        <v>1007.439105888767</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C40" t="n">
         <v>34.31465285444516</v>
@@ -7362,22 +7362,22 @@
         <v>334.857675380022</v>
       </c>
       <c r="T40" t="n">
-        <v>202.4532194928011</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U40" t="n">
-        <v>202.4532194928011</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V40" t="n">
-        <v>202.4532194928011</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W40" t="n">
-        <v>202.4532194928011</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X40" t="n">
-        <v>202.4532194928011</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="Y40" t="n">
-        <v>202.4532194928011</v>
+        <v>213.7256838291604</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>375.4986524930586</v>
+        <v>916.6244702546006</v>
       </c>
       <c r="C41" t="n">
-        <v>375.4986524930586</v>
+        <v>562.8815436069452</v>
       </c>
       <c r="D41" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="E41" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="F41" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="G41" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H41" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I41" t="n">
         <v>34.31465285444516</v>
@@ -7435,28 +7435,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T41" t="n">
-        <v>1195.201146295157</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U41" t="n">
-        <v>942.6401640759906</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="V41" t="n">
-        <v>753.3645518646074</v>
+        <v>920.7032200435018</v>
       </c>
       <c r="W41" t="n">
-        <v>753.3645518646074</v>
+        <v>916.6244702546006</v>
       </c>
       <c r="X41" t="n">
-        <v>753.3645518646074</v>
+        <v>916.6244702546006</v>
       </c>
       <c r="Y41" t="n">
-        <v>753.3645518646074</v>
+        <v>916.6244702546006</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1069.118384851047</v>
+        <v>263.3188973532198</v>
       </c>
       <c r="C42" t="n">
-        <v>879.7061105840106</v>
+        <v>73.90662308618349</v>
       </c>
       <c r="D42" t="n">
-        <v>718.9259943450423</v>
+        <v>73.90662308618349</v>
       </c>
       <c r="E42" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F42" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I42" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K42" t="n">
-        <v>112.3287381944631</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L42" t="n">
-        <v>395.2338702498412</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M42" t="n">
-        <v>770.1254798029028</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N42" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P42" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
@@ -7517,25 +7517,25 @@
         <v>1627.958867440572</v>
       </c>
       <c r="S42" t="n">
-        <v>1627.958867440572</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T42" t="n">
-        <v>1627.958867440572</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U42" t="n">
-        <v>1627.958867440572</v>
+        <v>995.305179102598</v>
       </c>
       <c r="V42" t="n">
-        <v>1627.958867440572</v>
+        <v>752.2254610062321</v>
       </c>
       <c r="W42" t="n">
-        <v>1627.958867440572</v>
+        <v>482.8268917365234</v>
       </c>
       <c r="X42" t="n">
-        <v>1408.450873057268</v>
+        <v>263.3188973532198</v>
       </c>
       <c r="Y42" t="n">
-        <v>1247.654237777982</v>
+        <v>263.3188973532198</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.31465285444516</v>
+        <v>317.752050259164</v>
       </c>
       <c r="C43" t="n">
-        <v>34.31465285444516</v>
+        <v>317.752050259164</v>
       </c>
       <c r="D43" t="n">
-        <v>34.31465285444516</v>
+        <v>317.752050259164</v>
       </c>
       <c r="E43" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F43" t="n">
         <v>34.31465285444516</v>
@@ -7590,31 +7590,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q43" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R43" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S43" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T43" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U43" t="n">
-        <v>34.31465285444516</v>
+        <v>317.752050259164</v>
       </c>
       <c r="V43" t="n">
-        <v>34.31465285444516</v>
+        <v>317.752050259164</v>
       </c>
       <c r="W43" t="n">
-        <v>34.31465285444516</v>
+        <v>317.752050259164</v>
       </c>
       <c r="X43" t="n">
-        <v>34.31465285444516</v>
+        <v>317.752050259164</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.31465285444516</v>
+        <v>317.752050259164</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1104.472803445397</v>
+        <v>1160.987610990982</v>
       </c>
       <c r="C44" t="n">
-        <v>750.7298767977416</v>
+        <v>1086.364174620979</v>
       </c>
       <c r="D44" t="n">
-        <v>409.5458771591282</v>
+        <v>745.1801749823653</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="F44" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G44" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H44" t="n">
         <v>34.31465285444516</v>
@@ -7648,19 +7648,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602976</v>
       </c>
       <c r="K44" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N44" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O44" t="n">
         <v>1460.632785841149</v>
@@ -7672,28 +7672,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S44" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T44" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U44" t="n">
-        <v>1463.171660503092</v>
+        <v>1160.987610990982</v>
       </c>
       <c r="V44" t="n">
-        <v>1463.171660503092</v>
+        <v>1160.987610990982</v>
       </c>
       <c r="W44" t="n">
-        <v>1463.171660503092</v>
+        <v>1160.987610990982</v>
       </c>
       <c r="X44" t="n">
-        <v>1463.171660503092</v>
+        <v>1160.987610990982</v>
       </c>
       <c r="Y44" t="n">
-        <v>1463.171660503092</v>
+        <v>1160.987610990982</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1069.118384851047</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="C45" t="n">
-        <v>879.7061105840106</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="D45" t="n">
-        <v>718.9259943450423</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="E45" t="n">
-        <v>545.3627904664568</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F45" t="n">
-        <v>384.9350741837009</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G45" t="n">
-        <v>235.4660406069408</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I45" t="n">
         <v>34.31465285444516</v>
@@ -7739,13 +7739,13 @@
         <v>873.305863297421</v>
       </c>
       <c r="N45" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P45" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
@@ -7760,19 +7760,19 @@
         <v>1715.732642722258</v>
       </c>
       <c r="U45" t="n">
-        <v>1692.802925225958</v>
+        <v>1530.349052268948</v>
       </c>
       <c r="V45" t="n">
-        <v>1692.802925225958</v>
+        <v>1530.349052268948</v>
       </c>
       <c r="W45" t="n">
-        <v>1692.802925225958</v>
+        <v>1260.950482999239</v>
       </c>
       <c r="X45" t="n">
-        <v>1473.294930842654</v>
+        <v>1041.442488615936</v>
       </c>
       <c r="Y45" t="n">
-        <v>1247.654237777982</v>
+        <v>815.8017955512632</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>334.857675380022</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="C46" t="n">
-        <v>334.857675380022</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="D46" t="n">
-        <v>334.857675380022</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="E46" t="n">
-        <v>191.7504620343402</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="F46" t="n">
-        <v>51.42027797530318</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="G46" t="n">
         <v>34.31465285444516</v>
@@ -7845,13 +7845,13 @@
         <v>334.857675380022</v>
       </c>
       <c r="W46" t="n">
-        <v>334.857675380022</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="X46" t="n">
-        <v>334.857675380022</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="Y46" t="n">
-        <v>334.857675380022</v>
+        <v>41.61453690594595</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>61.40936639976317</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372845</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8786,10 +8786,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>122.4388889890791</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.67636752131754</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9008,10 +9008,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372845</v>
       </c>
       <c r="L15" t="n">
-        <v>136.0819341662187</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
         <v>301.77688131</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.67636752131754</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,19 +9242,19 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>61.40936639976317</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K18" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>156.3795586670409</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>310.6138585746227</v>
+        <v>226.6888734850213</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9263,7 +9263,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.67636752131754</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>61.40936639976319</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K21" t="n">
-        <v>8.64638209049167</v>
+        <v>87.44848849454974</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>123.4784739253762</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>61.40936639976317</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>8.646382090491642</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9734,10 +9734,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>102.1412644882571</v>
       </c>
       <c r="Q24" t="n">
-        <v>123.4784739253762</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,13 +9953,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K27" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L27" t="n">
-        <v>44.62821923470699</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
         <v>301.77688131</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,16 +10190,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K30" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M30" t="n">
-        <v>301.77688131</v>
+        <v>217.8518962203992</v>
       </c>
       <c r="N30" t="n">
         <v>310.6138585746227</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.1808494245546</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,13 +10427,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K33" t="n">
-        <v>8.64638209049167</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L33" t="n">
-        <v>207.3553107283663</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10667,7 +10667,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>67.1508639937289</v>
+        <v>67.15086399372845</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10901,10 +10901,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>87.44848849455019</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10913,7 +10913,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11138,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>87.44848849455019</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11150,7 +11150,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O42" t="n">
         <v>255.2227828913207</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315037</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11317,7 +11317,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476181</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11387,7 +11387,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>206.3912489842003</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23260,25 +23260,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>301.5118960180278</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>35.94332020512991</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23326,7 +23326,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>168.4976559200373</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>113.7107298790351</v>
       </c>
       <c r="H12" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553585</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4779332534541</v>
       </c>
       <c r="S13" t="n">
-        <v>174.1840844483079</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2779548450047</v>
+        <v>157.1147319848401</v>
       </c>
       <c r="I14" t="n">
         <v>185.5090622027478</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>100.6264384597067</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
@@ -23563,7 +23563,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>124.80157053291</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>64.19561720753191</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23676,7 +23676,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553585</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
-        <v>174.1840844483078</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>245.1090151844499</v>
+        <v>236.1927565175929</v>
       </c>
       <c r="W16" t="n">
         <v>290.3107070893353</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>189.9147930878988</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>204.219319171025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9665067517017</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350704</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,19 +23864,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>12.57794504383381</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.6169206649681</v>
+        <v>46.53650933661933</v>
       </c>
       <c r="C19" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E19" t="n">
-        <v>4.221542945028432</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F19" t="n">
         <v>138.9268822184467</v>
@@ -23907,13 +23907,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I19" t="n">
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58429473553585</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
-        <v>11.67747981110637</v>
+        <v>322.185648817332</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>382.2855674184499</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>20.61987712164884</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>175.6594132978998</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C22" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>145.1826502507107</v>
@@ -24138,7 +24138,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
-        <v>138.9268822184467</v>
+        <v>7.846470890097891</v>
       </c>
       <c r="G22" t="n">
         <v>168.0550137836253</v>
@@ -24150,7 +24150,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553585</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706151</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R22" t="n">
         <v>174.3941919203111</v>
@@ -24192,10 +24192,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
-        <v>141.5231359220898</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="23">
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
         <v>403.1992496400135</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1639724458418</v>
+        <v>201.4349838847855</v>
       </c>
       <c r="U23" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>35.701464014652</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -24284,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>173.4205784779038</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>147.9743432409925</v>
@@ -24305,7 +24305,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350704</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>68.72678873910701</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>128.2480813810612</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
         <v>168.0550137836253</v>
@@ -24387,7 +24387,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58429473553585</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R25" t="n">
-        <v>174.3941919203111</v>
+        <v>97.85899682069675</v>
       </c>
       <c r="S25" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T25" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>288.6213336334641</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>285.4400301890113</v>
+        <v>298.5407377886827</v>
       </c>
       <c r="H26" t="n">
         <v>332.2779548450047</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>359.7827142947061</v>
@@ -24524,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>96.75916573427996</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -24539,7 +24539,7 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>80.84345120350706</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>38.53795210023776</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>170.3900354539823</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -24651,10 +24651,10 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T28" t="n">
-        <v>147.6489937016422</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
         <v>288.6213336334641</v>
@@ -24663,7 +24663,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>350.2054973811788</v>
@@ -24688,13 +24688,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>226.2298738235044</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
         <v>332.2779548450047</v>
@@ -24730,25 +24730,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>137.7849248517699</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -24770,7 +24770,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>120.3777872980874</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>147.9743432409925</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>97.29219807573567</v>
       </c>
     </row>
     <row r="31">
@@ -24891,19 +24891,19 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T31" t="n">
-        <v>212.0861385338497</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>214.6925701972567</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>197.1452141172633</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>212.564691541604</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
         <v>185.5090622027478</v>
@@ -24985,7 +24985,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>173.4205784779038</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>97.2921980757358</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>214.6925701972568</v>
       </c>
       <c r="X34" t="n">
-        <v>214.6925701972567</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>217.1412728141684</v>
@@ -25156,10 +25156,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>371.4789120616362</v>
@@ -25168,13 +25168,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
-        <v>72.48213903752335</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>244.0311911126256</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -25244,16 +25244,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>91.51365793019468</v>
       </c>
       <c r="H36" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>85.54251035706827</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25362,16 +25362,16 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S37" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>215.2679301343996</v>
       </c>
       <c r="V37" t="n">
-        <v>236.1927565175928</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
         <v>290.3107070893353</v>
@@ -25393,22 +25393,22 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
         <v>185.5090622027478</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>14.50493291702651</v>
       </c>
       <c r="V38" t="n">
-        <v>136.2010497632765</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>38.67310669535263</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
         <v>177.283526739121</v>
@@ -25526,10 +25526,10 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>84.06009718378976</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25602,7 +25602,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T40" t="n">
-        <v>89.92198587235802</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U40" t="n">
         <v>288.6213336334641</v>
@@ -25614,7 +25614,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>101.9987837728895</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>133.4969275198827</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>333.8585015347547</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>132.6315213103787</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>64.19561720753208</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -25794,10 +25794,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>168.0550137836253</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S43" t="n">
-        <v>174.1840844483081</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T43" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6213336334641</v>
+        <v>271.6867647638147</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>18.97537189071573</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>276.3282953748752</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>185.5090622027478</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.1639724458418</v>
@@ -25946,10 +25946,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26000,13 +26000,13 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>214.4769740943918</v>
+        <v>53.64763986695198</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>151.1204449139758</v>
+        <v>160.8281285726395</v>
       </c>
       <c r="H46" t="n">
         <v>160.0829940331247</v>
@@ -26085,7 +26085,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>554043.1955201112</v>
+        <v>554043.1955201111</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>554043.1955201112</v>
+        <v>554043.195520111</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>554043.1955201114</v>
+        <v>554043.195520111</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>554043.1955201112</v>
+        <v>554043.195520111</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>554043.195520111</v>
+        <v>554043.1955201111</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>554043.1955201112</v>
+        <v>554043.1955201111</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>554043.1955201111</v>
+        <v>554043.195520111</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>554043.195520111</v>
+        <v>554043.1955201112</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>554043.1955201109</v>
+        <v>554043.1955201111</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>617352.3966235217</v>
+        <v>617352.3966235218</v>
       </c>
       <c r="C2" t="n">
         <v>617352.3966235217</v>
       </c>
       <c r="D2" t="n">
-        <v>617352.3966235217</v>
+        <v>617352.3966235218</v>
       </c>
       <c r="E2" t="n">
-        <v>350646.9751767689</v>
+        <v>350646.975176769</v>
       </c>
       <c r="F2" t="n">
         <v>350646.975176769</v>
       </c>
       <c r="G2" t="n">
-        <v>350646.9751767691</v>
+        <v>350646.975176769</v>
       </c>
       <c r="H2" t="n">
         <v>350646.975176769</v>
       </c>
       <c r="I2" t="n">
-        <v>350646.975176769</v>
+        <v>350646.9751767691</v>
       </c>
       <c r="J2" t="n">
         <v>350646.975176769</v>
       </c>
       <c r="K2" t="n">
-        <v>350646.9751767689</v>
+        <v>350646.975176769</v>
       </c>
       <c r="L2" t="n">
-        <v>350646.975176769</v>
+        <v>350646.9751767691</v>
       </c>
       <c r="M2" t="n">
         <v>350646.975176769</v>
       </c>
       <c r="N2" t="n">
-        <v>350646.975176769</v>
+        <v>350646.9751767691</v>
       </c>
       <c r="O2" t="n">
-        <v>350646.9751767689</v>
+        <v>350646.9751767691</v>
       </c>
       <c r="P2" t="n">
-        <v>350646.9751767688</v>
+        <v>350646.9751767691</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174926</v>
+        <v>497053.1518174924</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>28394.46915996418</v>
       </c>
       <c r="F4" t="n">
-        <v>28394.46915996417</v>
+        <v>28394.46915996418</v>
       </c>
       <c r="G4" t="n">
         <v>28394.46915996418</v>
@@ -26478,31 +26478,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="F5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="G5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="H5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="K5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="L5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="N5" t="n">
         <v>36091.33751189045</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174644.6735703064</v>
+        <v>174600.0097282546</v>
       </c>
       <c r="C6" t="n">
-        <v>174644.6735703064</v>
+        <v>174600.0097282545</v>
       </c>
       <c r="D6" t="n">
-        <v>174644.6735703064</v>
+        <v>174600.0097282546</v>
       </c>
       <c r="E6" t="n">
-        <v>-210891.9833125783</v>
+        <v>-220461.8407777283</v>
       </c>
       <c r="F6" t="n">
-        <v>286161.1685049144</v>
+        <v>276591.3110397641</v>
       </c>
       <c r="G6" t="n">
-        <v>286161.1685049144</v>
+        <v>276591.3110397641</v>
       </c>
       <c r="H6" t="n">
-        <v>286161.1685049143</v>
+        <v>276591.3110397641</v>
       </c>
       <c r="I6" t="n">
-        <v>286161.1685049143</v>
+        <v>276591.3110397642</v>
       </c>
       <c r="J6" t="n">
-        <v>286161.1685049143</v>
+        <v>276591.3110397641</v>
       </c>
       <c r="K6" t="n">
-        <v>286161.1685049143</v>
+        <v>276591.3110397641</v>
       </c>
       <c r="L6" t="n">
-        <v>286161.1685049144</v>
+        <v>276591.3110397642</v>
       </c>
       <c r="M6" t="n">
-        <v>179269.3091306749</v>
+        <v>169699.4516655248</v>
       </c>
       <c r="N6" t="n">
-        <v>286161.1685049145</v>
+        <v>276591.3110397642</v>
       </c>
       <c r="O6" t="n">
-        <v>286161.1685049143</v>
+        <v>276591.3110397642</v>
       </c>
       <c r="P6" t="n">
-        <v>286161.1685049142</v>
+        <v>276591.3110397642</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="H3" t="n">
         <v>459.2752909409236</v>
       </c>
       <c r="I3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="J3" t="n">
         <v>459.2752909409236</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="F4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="G4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="H4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="I4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="J4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="K4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="L4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="M4" t="n">
         <v>428.9331606805645</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,43 +31755,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H11" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J11" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K11" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L11" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N11" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O11" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R11" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S11" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T11" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U11" t="n">
         <v>0.1477066262322567</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H12" t="n">
-        <v>9.540794251433153</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L12" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M12" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N12" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O12" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P12" t="n">
         <v>188.640826575339</v>
@@ -31864,16 +31864,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S12" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T12" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H13" t="n">
-        <v>7.363462861315142</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I13" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J13" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
@@ -31931,7 +31931,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N13" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O13" t="n">
         <v>117.0624954680243</v>
@@ -31940,19 +31940,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R13" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S13" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T13" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,43 +31992,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H14" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J14" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K14" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L14" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O14" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R14" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H15" t="n">
-        <v>9.540794251433153</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L15" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M15" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N15" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O15" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P15" t="n">
         <v>188.640826575339</v>
@@ -32101,16 +32101,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S15" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H16" t="n">
-        <v>7.363462861315142</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I16" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
@@ -32168,7 +32168,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N16" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O16" t="n">
         <v>117.0624954680243</v>
@@ -32177,19 +32177,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R16" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,43 +32229,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H17" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J17" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K17" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L17" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O17" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P17" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R17" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T17" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H18" t="n">
-        <v>9.540794251433153</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L18" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M18" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N18" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O18" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P18" t="n">
         <v>188.640826575339</v>
@@ -32338,16 +32338,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S18" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315142</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I19" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
@@ -32405,7 +32405,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N19" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O19" t="n">
         <v>117.0624954680243</v>
@@ -32414,19 +32414,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R19" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S19" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T19" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,19 +32466,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H20" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K20" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L20" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M20" t="n">
         <v>324.1998891675596</v>
@@ -32487,10 +32487,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O20" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q20" t="n">
         <v>199.3831741692328</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H21" t="n">
-        <v>9.540794251433152</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K21" t="n">
         <v>159.5201734582263</v>
@@ -32563,10 +32563,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O21" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P21" t="n">
         <v>188.640826575339</v>
@@ -32575,13 +32575,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S21" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U21" t="n">
         <v>0.06499178645390431</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H22" t="n">
-        <v>7.363462861315141</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I22" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J22" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
@@ -32642,7 +32642,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N22" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O22" t="n">
         <v>117.0624954680243</v>
@@ -32651,16 +32651,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R22" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U22" t="n">
         <v>0.0451746187810745</v>
@@ -32703,43 +32703,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H23" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J23" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K23" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O23" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P23" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R23" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H24" t="n">
-        <v>9.540794251433153</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L24" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M24" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N24" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O24" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P24" t="n">
         <v>188.640826575339</v>
@@ -32812,16 +32812,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S24" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T24" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H25" t="n">
-        <v>7.363462861315142</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I25" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
@@ -32879,7 +32879,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N25" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O25" t="n">
         <v>117.0624954680243</v>
@@ -32888,19 +32888,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R25" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S25" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T25" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K11" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L11" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M11" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N11" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O11" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P11" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K12" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323679</v>
       </c>
       <c r="L12" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M12" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N12" t="n">
-        <v>407.3068328282941</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O12" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P12" t="n">
-        <v>147.6309385189352</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M13" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K14" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L14" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M14" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P14" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K15" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323679</v>
       </c>
       <c r="L15" t="n">
-        <v>181.5401500614744</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M15" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N15" t="n">
-        <v>407.3068328282941</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P15" t="n">
         <v>231.5559236085354</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M16" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K17" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L17" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M17" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O17" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P17" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
-        <v>201.8377745622966</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M18" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N18" t="n">
-        <v>407.3068328282941</v>
+        <v>323.3818477386927</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P18" t="n">
         <v>231.5559236085354</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M19" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K20" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M20" t="n">
         <v>334.4622543336424</v>
@@ -36135,13 +36135,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O20" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P20" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>78.80210640405807</v>
       </c>
       <c r="L21" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M21" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N21" t="n">
-        <v>407.3068328282941</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O21" t="n">
         <v>316.2959939867616</v>
@@ -36220,7 +36220,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.80210640405862</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M22" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N22" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P22" t="n">
         <v>19.62327613144092</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K23" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L23" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M23" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O23" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P23" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L24" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M24" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N24" t="n">
-        <v>407.3068328282941</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O24" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
-        <v>231.5559236085354</v>
+        <v>127.3333140181132</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.80210640405862</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M25" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L27" t="n">
-        <v>90.08643512996257</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M27" t="n">
         <v>378.6783934879409</v>
@@ -36694,7 +36694,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M30" t="n">
-        <v>378.6783934879409</v>
+        <v>294.7534083983401</v>
       </c>
       <c r="N30" t="n">
         <v>407.306832828294</v>
@@ -36931,7 +36931,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>58.50448190323704</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L33" t="n">
-        <v>252.8135266236219</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M33" t="n">
         <v>378.6783934879409</v>
@@ -37168,7 +37168,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>20.29762450082173</v>
       </c>
       <c r="K36" t="n">
-        <v>58.50448190323724</v>
+        <v>58.50448190323679</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518971</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K39" t="n">
-        <v>78.80210640405852</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L39" t="n">
         <v>285.7627596518971</v>
@@ -37633,7 +37633,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N39" t="n">
-        <v>407.306832828294</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O39" t="n">
         <v>316.2959939867616</v>
@@ -37642,7 +37642,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K42" t="n">
-        <v>78.80210640405852</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L42" t="n">
         <v>285.7627596518971</v>
@@ -37870,7 +37870,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N42" t="n">
-        <v>407.306832828294</v>
+        <v>211.6305083063586</v>
       </c>
       <c r="O42" t="n">
         <v>316.2959939867616</v>
@@ -37879,7 +37879,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119657</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
@@ -38037,7 +38037,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.75034647002249</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N45" t="n">
-        <v>303.0842232378716</v>
+        <v>211.6305083063586</v>
       </c>
       <c r="O45" t="n">
         <v>316.2959939867616</v>
@@ -38116,7 +38116,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
